--- a/output/xlsx/RF009 - Gerenciar Resultados de Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF009 - Gerenciar Resultados de Avaliacoes--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="45">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -98,7 +98,7 @@
     <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Resultado' dentre as varias listadas</t>
   </si>
   <si>
-    <t>Lider de Pessoas com uma avaliacao selecionada, clica na opcao 'Resultados' para efetivar o feedback</t>
+    <t>Lider de Pessoas com uma avaliacao selecionada, clica na opcao 'Resultado' para efetivar o feedback</t>
   </si>
   <si>
     <t>SYSTEM apresenta o formulario para cadastro da Ata de Reuniao</t>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>SYSTEM apresenta o campo 'Ata de Reuniao de Feedback' preenchido corretamente</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas verifica a presenca (somente leitura) do detalhe de cada competencia avaliada</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta os detalhes de cada competencia, incluindo:                    - a descricao da competencia;                   - o valor da autoavaliacao, a media das notas dos avaliadores e o valor da meta do avaliado;                   - os niveis de avaliacao para aquela competencia; e,                   - os apontamentos.</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Salvar'</t>
@@ -336,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -573,139 +579,139 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B14" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="C14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="C14" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="E14" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16"/>
-    <row r="17">
-      <c r="A17" t="s" s="4">
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B17" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s" s="4">
+      <c r="B18" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D17" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s" s="4">
+      <c r="D18" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F17" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="9">
+      <c r="F18" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s" s="9">
+      <c r="B19" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F18" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="8">
+      <c r="F19" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B20" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="5">
+      <c r="C20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B21" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C21" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D21" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E20" t="s" s="5">
+      <c r="E21" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F21" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D22" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s" s="6">
         <v>2</v>
@@ -716,16 +722,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D23" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s" s="6">
         <v>2</v>
@@ -736,158 +742,158 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B24" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" t="s" s="4">
+      <c r="B25" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B27" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s" s="4">
+      <c r="B29" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D27" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s" s="4">
+      <c r="D29" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F27" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="9">
+      <c r="F29" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s" s="9">
+      <c r="B30" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F28" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="8">
+      <c r="F30" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B29" t="s" s="8">
+      <c r="B31" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="5">
+      <c r="C31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B32" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C32" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D32" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E32" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F32" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B31" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D33" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s" s="6">
         <v>2</v>
@@ -898,183 +904,263 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B36" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="C36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B37" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s" s="4">
+      <c r="B40" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D37" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s" s="4">
+      <c r="D40" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F37" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="9">
+      <c r="F40" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="9">
+      <c r="B41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F38" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="8">
+      <c r="F41" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B42" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="5">
+      <c r="C42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B43" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C43" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D43" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E40" t="s" s="5">
+      <c r="E43" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F43" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E42" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
         <v>4.0</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B47" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="6">
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1083,13 +1169,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:F42"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF009 - Gerenciar Resultados de Avaliacoes--GTP-.xlsx
+++ b/output/xlsx/RF009 - Gerenciar Resultados de Avaliacoes--GTP-.xlsx
@@ -95,7 +95,7 @@
     <t>Lider de Pessoas acessa a funcionalidade de Avaliacoes a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Resultado' dentre as varias listadas</t>
+    <t>SYSTEM exibe a listagem das Avaliacoes cadastradas com a opcao 'Resultado' dentre as varias exibidas</t>
   </si>
   <si>
     <t>Lider de Pessoas com uma avaliacao selecionada, clica na opcao 'Resultado' para efetivar o feedback</t>
@@ -104,7 +104,7 @@
     <t>SYSTEM apresenta o formulario para cadastro da Ata de Reuniao</t>
   </si>
   <si>
-    <t>Lider de Pessoas seleciona o 'Ata de Reuniao de Feedback' da Avaliacao (1 a 4) para cada Perfil de Competencias avaliado</t>
+    <t>Lider de Pessoas preenche a 'Ata de Reuniao de Feedback' da Avaliacao para cada Perfil de Competencias avaliado</t>
   </si>
   <si>
     <t>SYSTEM apresenta o campo 'Ata de Reuniao de Feedback' preenchido corretamente</t>
